--- a/output/service.go_ms.json/directory.result.xlsx
+++ b/output/service.go_ms.json/directory.result.xlsx
@@ -523,12 +523,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -545,7 +545,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'start': '1970-01-01 00:00:00.000000', 'end': '1970-01-01 01:00:00.000000'}</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -577,12 +577,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -599,7 +599,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>{'start': '2024-04-15 10:00:00.000000', 'end': '2024-04-15 11:00:00.000000'}</t>
+          <t>etcdregistry.go:333</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -631,19 +631,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LEVEL</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -653,7 +653,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>{'start': '1970-01-01 00:00:00.000000', 'end': '1970-01-01 01:00:00.000000'}</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -685,19 +685,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LEVEL</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -707,7 +707,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>{'start': '2024-04-15 10:00:00.000000', 'end': '2024-04-15 11:00:00.000000'}</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>LEVEL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -859,7 +859,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
@@ -901,7 +901,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>LEVEL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -913,7 +913,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -923,7 +923,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>etcdregistry.go:333</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
